--- a/outputs_HGR/c__Bacilli.xlsx
+++ b/outputs_HGR/c__Bacilli.xlsx
@@ -3192,7 +3192,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Bacillales(reject)</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Bacillales(reject)</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Bacillales(reject)</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Bacillales(reject)</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>o__Lactobacillales</t>
+          <t>o__Lactobacillales(reject)</t>
         </is>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>o__Bacillales</t>
+          <t>o__Bacillales(reject)</t>
         </is>
       </c>
     </row>
